--- a/test_excel/WeChat_need.xlsx
+++ b/test_excel/WeChat_need.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="156">
   <si>
     <t>1.测试目的</t>
   </si>
@@ -35,12 +35,45 @@
     <t>微信注册测试</t>
   </si>
   <si>
+    <t>条件</t>
+  </si>
+  <si>
+    <t>类型</t>
+  </si>
+  <si>
+    <t>长度</t>
+  </si>
+  <si>
+    <t>规则</t>
+  </si>
+  <si>
+    <t>手机号</t>
+  </si>
+  <si>
+    <t>自然数</t>
+  </si>
+  <si>
+    <t>11位</t>
+  </si>
+  <si>
+    <t>第一位为1，第二位大于2</t>
+  </si>
+  <si>
+    <t>密码</t>
+  </si>
+  <si>
+    <t>数字，字母，特殊符号</t>
+  </si>
+  <si>
+    <t>8-16位</t>
+  </si>
+  <si>
+    <t>不能是纯数字</t>
+  </si>
+  <si>
     <t>2.划分等价类</t>
   </si>
   <si>
-    <t>条件</t>
-  </si>
-  <si>
     <t>有效条件</t>
   </si>
   <si>
@@ -50,9 +83,6 @@
     <t>无效条件</t>
   </si>
   <si>
-    <t>手机号</t>
-  </si>
-  <si>
     <t>11位自然数组成的合法未注册手机号</t>
   </si>
   <si>
@@ -68,7 +98,7 @@
     <t>包括非自然数</t>
   </si>
   <si>
-    <t>a1234567890</t>
+    <t>a3234567890</t>
   </si>
   <si>
     <t>无效手机号</t>
@@ -80,18 +110,18 @@
     <t>15999999999(已注册)</t>
   </si>
   <si>
-    <t>0开头</t>
-  </si>
-  <si>
-    <t>01234567890</t>
+    <t>非1开头</t>
+  </si>
+  <si>
+    <t>03234567890</t>
+  </si>
+  <si>
+    <t>第二位小于等于2</t>
   </si>
   <si>
     <t>空</t>
   </si>
   <si>
-    <t>密码</t>
-  </si>
-  <si>
     <t>8-16位英文字母，数字组合</t>
   </si>
   <si>
@@ -119,44 +149,92 @@
     <t>8-16位特殊符号</t>
   </si>
   <si>
-    <t>3.提取数据编写案例</t>
-  </si>
-  <si>
-    <t>用例ID</t>
-  </si>
-  <si>
-    <t>测试项</t>
-  </si>
-  <si>
-    <t>输入条件</t>
+    <t>3.确定边界值范围</t>
+  </si>
+  <si>
+    <t>上点</t>
+  </si>
+  <si>
+    <t>8位，16位</t>
+  </si>
+  <si>
+    <t>离点</t>
+  </si>
+  <si>
+    <t>7位，9位，15位，17位</t>
+  </si>
+  <si>
+    <t>内点</t>
+  </si>
+  <si>
+    <t>12位</t>
+  </si>
+  <si>
+    <t>8位密码</t>
+  </si>
+  <si>
+    <t>大于16位（17位）</t>
+  </si>
+  <si>
+    <t>16位密码</t>
+  </si>
+  <si>
+    <t>小于8位（7位）</t>
+  </si>
+  <si>
+    <t>9位密码</t>
+  </si>
+  <si>
+    <t>15位密码</t>
+  </si>
+  <si>
+    <t>12位密码</t>
+  </si>
+  <si>
+    <t>4.根据数据编写用例</t>
+  </si>
+  <si>
+    <t>用例编号</t>
+  </si>
+  <si>
+    <t>用例标题</t>
+  </si>
+  <si>
+    <t>所属模块</t>
+  </si>
+  <si>
+    <t>优先级</t>
+  </si>
+  <si>
+    <t>前置条件</t>
+  </si>
+  <si>
+    <t>测试步骤</t>
   </si>
   <si>
     <t>测试数据</t>
   </si>
   <si>
-    <t>测试步骤</t>
-  </si>
-  <si>
     <t>预期结果</t>
   </si>
   <si>
-    <t>TC-001</t>
-  </si>
-  <si>
-    <t>手机号-有效输入</t>
-  </si>
-  <si>
-    <t>11位自然数且未注册</t>
-  </si>
-  <si>
-    <t>1. 打开微信注册页面</t>
-  </si>
-  <si>
-    <t>注册成功，提示“验证码已发送”或进入下一步</t>
-  </si>
-  <si>
-    <r>
-      <t>2. 输入手机号 </t>
+    <t>TC-REG-001</t>
+  </si>
+  <si>
+    <t>手机号-最小边界值（11位合法）</t>
+  </si>
+  <si>
+    <t>注册模块</t>
+  </si>
+  <si>
+    <t>P0</t>
+  </si>
+  <si>
+    <t>微信未注册页面已打开</t>
+  </si>
+  <si>
+    <r>
+      <t>1. 输入合法未注册手机号 </t>
     </r>
     <r>
       <rPr>
@@ -169,23 +247,8 @@
     </r>
   </si>
   <si>
-    <t>3. 输入合法密码</t>
-  </si>
-  <si>
-    <t>4. 点击注册</t>
-  </si>
-  <si>
-    <t>TC-002</t>
-  </si>
-  <si>
-    <t>手机号-大于11位</t>
-  </si>
-  <si>
-    <t>无效条件：长度&gt;11位</t>
-  </si>
-  <si>
-    <r>
-      <t>1. 输入手机号 </t>
+    <r>
+      <t>手机号：</t>
     </r>
     <r>
       <rPr>
@@ -194,30 +257,15 @@
         <rFont val="Consolas"/>
         <charset val="134"/>
       </rPr>
-      <t>150000000000</t>
-    </r>
-  </si>
-  <si>
-    <t>提示“手机号格式错误”</t>
-  </si>
-  <si>
-    <t>2. 输入合法密码</t>
-  </si>
-  <si>
-    <t>3. 点击注册</t>
-  </si>
-  <si>
-    <t>TC-003</t>
-  </si>
-  <si>
-    <t>手机号-小于11位</t>
-  </si>
-  <si>
-    <t>无效条件：长度&lt;11位</t>
-  </si>
-  <si>
-    <r>
-      <t>1. 输入手机号 </t>
+      <t>15999999999</t>
+    </r>
+  </si>
+  <si>
+    <t>注册成功，提示“验证码已发送”或进入下一步</t>
+  </si>
+  <si>
+    <r>
+      <t>2. 输入合法密码 </t>
     </r>
     <r>
       <rPr>
@@ -226,21 +274,21 @@
         <rFont val="Consolas"/>
         <charset val="134"/>
       </rPr>
-      <t>1588888888</t>
-    </r>
-  </si>
-  <si>
-    <t>TC-004</t>
-  </si>
-  <si>
-    <t>手机号-含非数字</t>
-  </si>
-  <si>
-    <t>无效条件：包含字母或符号</t>
-  </si>
-  <si>
-    <r>
-      <t>1. 输入手机号 </t>
+      <t>Abc123!@#</t>
+    </r>
+  </si>
+  <si>
+    <t>3. 点击注册</t>
+  </si>
+  <si>
+    <t>TC-REG-002</t>
+  </si>
+  <si>
+    <t>手机号-最大边界值（无效，仅测试输入长度）</t>
+  </si>
+  <si>
+    <r>
+      <t>1. 输入12位手机号 </t>
     </r>
     <r>
       <rPr>
@@ -249,24 +297,149 @@
         <rFont val="Consolas"/>
         <charset val="134"/>
       </rPr>
-      <t>a1234567890</t>
+      <t>159999999991</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>手机号：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.2"/>
+        <color rgb="FF0D0D0D"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>159999999991</t>
+    </r>
+  </si>
+  <si>
+    <t>提示“手机号格式错误”</t>
+  </si>
+  <si>
+    <t>2. 输入合法密码</t>
+  </si>
+  <si>
+    <t>TC-REG-003</t>
+  </si>
+  <si>
+    <t>手机号-下离点（10位）</t>
+  </si>
+  <si>
+    <r>
+      <t>1. 输入10位手机号 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.2"/>
+        <color rgb="FF0D0D0D"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>1599999999</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>手机号：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.2"/>
+        <color rgb="FF0D0D0D"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>1599999999</t>
+    </r>
+  </si>
+  <si>
+    <t>TC-REG-004</t>
+  </si>
+  <si>
+    <t>手机号-上离点（12位）</t>
+  </si>
+  <si>
+    <t>TC-REG-005</t>
+  </si>
+  <si>
+    <t>手机号-非数字字符</t>
+  </si>
+  <si>
+    <r>
+      <t>1. 输入含字母手机号 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.2"/>
+        <color rgb="FF0D0D0D"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>a5999999999</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>手机号：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.2"/>
+        <color rgb="FF0D0D0D"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>a5999999999</t>
     </r>
   </si>
   <si>
     <t>提示“手机号必须为数字”</t>
   </si>
   <si>
-    <t>TC-005</t>
-  </si>
-  <si>
-    <t>手机号-全相同数字</t>
-  </si>
-  <si>
-    <t>无效条件：逻辑错误（如全1）</t>
-  </si>
-  <si>
-    <r>
-      <t>1. 输入手机号 </t>
+    <t>TC-REG-006</t>
+  </si>
+  <si>
+    <t>手机号-非1开头（如03x）</t>
+  </si>
+  <si>
+    <r>
+      <t>1. 输入非1开头手机号 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.2"/>
+        <color rgb="FF0D0D0D"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>03234567890</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>手机号：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.2"/>
+        <color rgb="FF0D0D0D"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>03234567890</t>
+    </r>
+  </si>
+  <si>
+    <t>TC-REG-007</t>
+  </si>
+  <si>
+    <t>手机号-第二位≤2（如11x）</t>
+  </si>
+  <si>
+    <r>
+      <t>1. 输入第二位≤2的手机号 </t>
     </r>
     <r>
       <rPr>
@@ -279,16 +452,42 @@
     </r>
   </si>
   <si>
-    <t>提示“手机号无效”</t>
-  </si>
-  <si>
-    <t>TC-006</t>
+    <r>
+      <t>手机号：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.2"/>
+        <color rgb="FF0D0D0D"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>11111111111</t>
+    </r>
+  </si>
+  <si>
+    <t>TC-REG-008</t>
+  </si>
+  <si>
+    <t>手机号-空值</t>
+  </si>
+  <si>
+    <t>1. 留空手机号字段</t>
+  </si>
+  <si>
+    <t>手机号：空</t>
+  </si>
+  <si>
+    <t>提示“请输入手机号”</t>
+  </si>
+  <si>
+    <t>TC-REG-009</t>
   </si>
   <si>
     <t>手机号-已注册</t>
   </si>
   <si>
-    <t>无效条件：手机号已绑定微信</t>
+    <t>P1</t>
   </si>
   <si>
     <r>
@@ -308,17 +507,8 @@
     <t>提示“该手机号已注册”</t>
   </si>
   <si>
-    <t>TC-007</t>
-  </si>
-  <si>
-    <t>手机号-0开头</t>
-  </si>
-  <si>
-    <t>无效条件：前导0（可能不支持）</t>
-  </si>
-  <si>
-    <r>
-      <t>1. 输入手机号 </t>
+    <r>
+      <t>测试手机号已被注册（如</t>
     </r>
     <r>
       <rPr>
@@ -327,48 +517,27 @@
         <rFont val="Consolas"/>
         <charset val="134"/>
       </rPr>
-      <t>01234567890</t>
-    </r>
-  </si>
-  <si>
-    <t>提示“手机号格式错误”或“不支持前导0”</t>
-  </si>
-  <si>
-    <t>TC-008</t>
-  </si>
-  <si>
-    <t>手机号-空值</t>
-  </si>
-  <si>
-    <t>无效条件：未输入手机号</t>
-  </si>
-  <si>
-    <t>1. 留空手机号字段</t>
-  </si>
-  <si>
-    <t>提示“请输入手机号”</t>
-  </si>
-  <si>
-    <t>TC-009</t>
-  </si>
-  <si>
-    <t>密码-字母+数字</t>
-  </si>
-  <si>
-    <t>有效条件：8-16位字母+数字组合</t>
-  </si>
-  <si>
-    <t>Abc12345</t>
-  </si>
-  <si>
-    <t>1. 输入合法手机号</t>
-  </si>
-  <si>
-    <t>注册成功（若密码强度符合要求）</t>
-  </si>
-  <si>
-    <r>
-      <t>2. 输入密码 </t>
+      <t>15999999999</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF0D0D0D"/>
+        <rFont val="PingFangSC-Regular"/>
+        <charset val="134"/>
+      </rPr>
+      <t>）</t>
+    </r>
+  </si>
+  <si>
+    <t>TC-REG-010</t>
+  </si>
+  <si>
+    <t>密码-最小边界值（8位合法）</t>
+  </si>
+  <si>
+    <r>
+      <t>1. 输入密码 </t>
     </r>
     <r>
       <rPr>
@@ -377,24 +546,12 @@
         <rFont val="Consolas"/>
         <charset val="134"/>
       </rPr>
-      <t>Abc12345</t>
-    </r>
-  </si>
-  <si>
-    <t>TC-010</t>
-  </si>
-  <si>
-    <t>密码-字母+符号</t>
-  </si>
-  <si>
-    <t>有效条件：8-16位字母+符号组合</t>
-  </si>
-  <si>
-    <t>Abc!@#$%^</t>
-  </si>
-  <si>
-    <r>
-      <t>2. 输入密码 </t>
+      <t>Abc123!@</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>密码：</t>
     </r>
     <r>
       <rPr>
@@ -403,24 +560,15 @@
         <rFont val="Consolas"/>
         <charset val="134"/>
       </rPr>
-      <t>Abc!@#$%^</t>
-    </r>
-  </si>
-  <si>
-    <t>TC-011</t>
-  </si>
-  <si>
-    <t>密码-符号+数字</t>
-  </si>
-  <si>
-    <t>有效条件：8-16位符号+数字组合</t>
-  </si>
-  <si>
-    <t>123!@#$%^</t>
-  </si>
-  <si>
-    <r>
-      <t>2. 输入密码 </t>
+      <t>Abc123!@</t>
+    </r>
+  </si>
+  <si>
+    <t>注册成功（密码强度符合要求）</t>
+  </si>
+  <si>
+    <r>
+      <t>手机号已输入合法值（如</t>
     </r>
     <r>
       <rPr>
@@ -429,27 +577,30 @@
         <rFont val="Consolas"/>
         <charset val="134"/>
       </rPr>
-      <t>123!@#$%^</t>
-    </r>
-  </si>
-  <si>
-    <t>TC-012</t>
-  </si>
-  <si>
-    <t>密码-混合组合</t>
-  </si>
-  <si>
-    <t>有效条件：8-16位字母+数字+符号</t>
-  </si>
-  <si>
-    <t>Abc123!@#</t>
-  </si>
-  <si>
-    <t>注册成功</t>
-  </si>
-  <si>
-    <r>
-      <t>2. 输入密码 </t>
+      <t>15999999999</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF0D0D0D"/>
+        <rFont val="PingFangSC-Regular"/>
+        <charset val="134"/>
+      </rPr>
+      <t>）</t>
+    </r>
+  </si>
+  <si>
+    <t>2. 点击注册</t>
+  </si>
+  <si>
+    <t>TC-REG-011</t>
+  </si>
+  <si>
+    <t>密码-最大边界值（16位合法）</t>
+  </si>
+  <si>
+    <r>
+      <t>1. 输入密码 </t>
     </r>
     <r>
       <rPr>
@@ -458,27 +609,226 @@
         <rFont val="Consolas"/>
         <charset val="134"/>
       </rPr>
-      <t>Abc123!@#</t>
-    </r>
-  </si>
-  <si>
-    <t>TC-013</t>
-  </si>
-  <si>
-    <t>密码-仅字母</t>
-  </si>
-  <si>
-    <t>有效条件：8-16位纯字母</t>
-  </si>
-  <si>
-    <t>Abcdefgh</t>
-  </si>
-  <si>
-    <t>注册成功（若微信允许纯字母密码）</t>
-  </si>
-  <si>
-    <r>
-      <t>2. 输入密码 </t>
+      <t>Abc123!@#QWERTY</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>密码：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.2"/>
+        <color rgb="FF0D0D0D"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Abc123!@#QWERTY</t>
+    </r>
+  </si>
+  <si>
+    <t>手机号已输入合法值</t>
+  </si>
+  <si>
+    <t>TC-REG-012</t>
+  </si>
+  <si>
+    <t>密码-下离点（7位）</t>
+  </si>
+  <si>
+    <r>
+      <t>1. 输入密码 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.2"/>
+        <color rgb="FF0D0D0D"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Abc123!</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>密码：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.2"/>
+        <color rgb="FF0D0D0D"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Abc123!</t>
+    </r>
+  </si>
+  <si>
+    <t>提示“密码长度需在8-16位之间”</t>
+  </si>
+  <si>
+    <t>TC-REG-013</t>
+  </si>
+  <si>
+    <t>密码-上离点（17位）</t>
+  </si>
+  <si>
+    <r>
+      <t>1. 输入密码 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.2"/>
+        <color rgb="FF0D0D0D"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Abc123!@#QWERTY1</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>密码：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.2"/>
+        <color rgb="FF0D0D0D"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Abc123!@#QWERTY1</t>
+    </r>
+  </si>
+  <si>
+    <t>TC-REG-014</t>
+  </si>
+  <si>
+    <t>密码-内点（12位合法）</t>
+  </si>
+  <si>
+    <r>
+      <t>1. 输入密码 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.2"/>
+        <color rgb="FF0D0D0D"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Abc123!@#QWE</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>密码：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.2"/>
+        <color rgb="FF0D0D0D"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Abc123!@#QWE</t>
+    </r>
+  </si>
+  <si>
+    <t>TC-REG-015</t>
+  </si>
+  <si>
+    <t>密码-纯数字（8位）</t>
+  </si>
+  <si>
+    <r>
+      <t>1. 输入密码 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.2"/>
+        <color rgb="FF0D0D0D"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>12345678</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>密码：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.2"/>
+        <color rgb="FF0D0D0D"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>12345678</t>
+    </r>
+  </si>
+  <si>
+    <t>提示“密码不能为纯数字”</t>
+  </si>
+  <si>
+    <t>TC-REG-016</t>
+  </si>
+  <si>
+    <t>密码-纯数字（16位）</t>
+  </si>
+  <si>
+    <r>
+      <t>1. 输入密码 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.2"/>
+        <color rgb="FF0D0D0D"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>1234567890123456</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>密码：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.2"/>
+        <color rgb="FF0D0D0D"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>1234567890123456</t>
+    </r>
+  </si>
+  <si>
+    <t>TC-REG-017</t>
+  </si>
+  <si>
+    <t>密码-空值</t>
+  </si>
+  <si>
+    <t>1. 留空密码字段</t>
+  </si>
+  <si>
+    <t>密码：空</t>
+  </si>
+  <si>
+    <t>提示“请输入密码”</t>
+  </si>
+  <si>
+    <t>TC-REG-018</t>
+  </si>
+  <si>
+    <t>密码-仅字母（8位）</t>
+  </si>
+  <si>
+    <r>
+      <t>1. 输入密码 </t>
     </r>
     <r>
       <rPr>
@@ -491,23 +841,28 @@
     </r>
   </si>
   <si>
-    <t>TC-014</t>
-  </si>
-  <si>
-    <t>密码-仅符号</t>
-  </si>
-  <si>
-    <t>有效条件：8-16位纯符号</t>
-  </si>
-  <si>
-    <t>!@#$%^&amp;*</t>
-  </si>
-  <si>
-    <t>注册成功（若微信允许纯符号密码）</t>
-  </si>
-  <si>
-    <r>
-      <t>2. 输入密码 </t>
+    <r>
+      <t>密码：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.2"/>
+        <color rgb="FF0D0D0D"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Abcdefgh</t>
+    </r>
+  </si>
+  <si>
+    <t>TC-REG-019</t>
+  </si>
+  <si>
+    <t>密码-仅符号（8位）</t>
+  </si>
+  <si>
+    <r>
+      <t>1. 输入密码 </t>
     </r>
     <r>
       <rPr>
@@ -520,23 +875,8 @@
     </r>
   </si>
   <si>
-    <t>TC-015</t>
-  </si>
-  <si>
-    <t>密码-大于16位</t>
-  </si>
-  <si>
-    <t>无效条件：长度&gt;16位</t>
-  </si>
-  <si>
-    <t>Abc123456789012345</t>
-  </si>
-  <si>
-    <t>提示“密码长度需在8-16位之间”</t>
-  </si>
-  <si>
-    <r>
-      <t>2. 输入密码 </t>
+    <r>
+      <t>密码：</t>
     </r>
     <r>
       <rPr>
@@ -545,75 +885,8 @@
         <rFont val="Consolas"/>
         <charset val="134"/>
       </rPr>
-      <t>Abc123456789012345</t>
-    </r>
-  </si>
-  <si>
-    <t>TC-016</t>
-  </si>
-  <si>
-    <t>密码-小于8位</t>
-  </si>
-  <si>
-    <t>无效条件：长度&lt;8位</t>
-  </si>
-  <si>
-    <t>Abc123</t>
-  </si>
-  <si>
-    <r>
-      <t>2. 输入密码 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.2"/>
-        <color rgb="FF0D0D0D"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t>Abc123</t>
-    </r>
-  </si>
-  <si>
-    <t>TC-017</t>
-  </si>
-  <si>
-    <t>密码-纯数字</t>
-  </si>
-  <si>
-    <t>无效条件：仅数字（若规则不允许）</t>
-  </si>
-  <si>
-    <t>提示“密码需包含字母或符号”</t>
-  </si>
-  <si>
-    <r>
-      <t>2. 输入密码 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.2"/>
-        <color rgb="FF0D0D0D"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t>12345678</t>
-    </r>
-  </si>
-  <si>
-    <t>TC-018</t>
-  </si>
-  <si>
-    <t>密码-空值</t>
-  </si>
-  <si>
-    <t>无效条件：未输入密码</t>
-  </si>
-  <si>
-    <t>提示“请输入密码”</t>
-  </si>
-  <si>
-    <t>2. 留空密码字段</t>
+      <t>!@#$%^&amp;*</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -644,12 +917,6 @@
       <sz val="12"/>
       <color rgb="FF0D0D0D"/>
       <name val="PingFangSC-Regular"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="10.2"/>
-      <color rgb="FF0D0D0D"/>
-      <name val="Consolas"/>
       <charset val="134"/>
     </font>
     <font>
@@ -795,6 +1062,12 @@
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10.2"/>
+      <color rgb="FF0D0D0D"/>
+      <name val="Consolas"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="35">
@@ -1201,155 +1474,164 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -1358,6 +1640,12 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -1890,24 +2178,25 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G78"/>
+  <dimension ref="A1:H95"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="E41" sqref="E41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="7"/>
   <cols>
     <col min="1" max="1" width="20.8888888888889" customWidth="1"/>
-    <col min="2" max="2" width="14.1111111111111" customWidth="1"/>
-    <col min="3" max="3" width="38.8888888888889" customWidth="1"/>
-    <col min="4" max="4" width="36.3333333333333" customWidth="1"/>
-    <col min="5" max="5" width="18.7777777777778" customWidth="1"/>
-    <col min="6" max="6" width="22" customWidth="1"/>
-    <col min="7" max="7" width="36.3333333333333" customWidth="1"/>
+    <col min="2" max="2" width="38.8888888888889" customWidth="1"/>
+    <col min="3" max="3" width="12.8888888888889" customWidth="1"/>
+    <col min="4" max="4" width="25.4444444444444" customWidth="1"/>
+    <col min="5" max="5" width="23" customWidth="1"/>
+    <col min="6" max="6" width="21.3333333333333" customWidth="1"/>
+    <col min="7" max="7" width="21.6666666666667" customWidth="1"/>
+    <col min="8" max="8" width="23.7777777777778" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" customHeight="1" spans="1:2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1915,897 +2204,1336 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="2" customHeight="1" spans="1:4">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" customHeight="1" spans="1:4">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" customHeight="1"/>
+    <row r="6" customHeight="1" spans="1:1">
       <c r="A6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" customHeight="1" spans="1:5">
+      <c r="A7" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E6" s="1" t="s">
+      <c r="B7" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" customHeight="1" spans="1:5">
+      <c r="A8" t="s">
         <v>6</v>
       </c>
-      <c r="F6" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="2:6">
-      <c r="B7" t="s">
-        <v>7</v>
-      </c>
-      <c r="C7" t="s">
-        <v>8</v>
-      </c>
-      <c r="D7">
+      <c r="B8" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8">
         <v>15999999999</v>
       </c>
-      <c r="E7" t="s">
-        <v>9</v>
-      </c>
-      <c r="F7" s="10" t="s">
+      <c r="D8" t="s">
+        <v>19</v>
+      </c>
+      <c r="E8" s="15" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" customHeight="1" spans="4:5">
+      <c r="D9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9">
+        <v>1588888888</v>
+      </c>
+    </row>
+    <row r="10" spans="4:5">
+      <c r="D10" t="s">
+        <v>22</v>
+      </c>
+      <c r="E10" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="11" customHeight="1" spans="4:5">
+      <c r="D11" t="s">
+        <v>24</v>
+      </c>
+      <c r="E11">
+        <v>14111111111</v>
+      </c>
+    </row>
+    <row r="12" customHeight="1" spans="4:5">
+      <c r="D12" t="s">
+        <v>25</v>
+      </c>
+      <c r="E12" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="13" customHeight="1" spans="4:5">
+      <c r="D13" t="s">
+        <v>27</v>
+      </c>
+      <c r="E13" s="15" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="14" customHeight="1" spans="4:5">
+      <c r="D14" t="s">
+        <v>29</v>
+      </c>
+      <c r="E14">
+        <v>11111111111</v>
+      </c>
+    </row>
+    <row r="15" customHeight="1" spans="4:4">
+      <c r="D15" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="8" spans="5:6">
-      <c r="E8" t="s">
-        <v>11</v>
-      </c>
-      <c r="F8">
+      <c r="B16" t="s">
+        <v>31</v>
+      </c>
+      <c r="D16" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="17" customHeight="1" spans="2:4">
+      <c r="B17" t="s">
+        <v>33</v>
+      </c>
+      <c r="D17" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="18" customHeight="1" spans="2:4">
+      <c r="B18" t="s">
+        <v>35</v>
+      </c>
+      <c r="D18" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="19" customHeight="1" spans="2:4">
+      <c r="B19" t="s">
+        <v>37</v>
+      </c>
+      <c r="D19" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="20" customHeight="1" spans="2:2">
+      <c r="B20" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="21" customHeight="1" spans="2:2">
+      <c r="B21" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1">
+      <c r="A22" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="23" customFormat="1" customHeight="1" spans="2:2">
+      <c r="B23" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24" ht="17.1" customHeight="1" spans="1:2">
+      <c r="A24" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="26" customHeight="1" spans="1:2">
+      <c r="A26" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="27" ht="19.95" customHeight="1" spans="1:6">
+      <c r="A27" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F27" s="3"/>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28" t="s">
+        <v>6</v>
+      </c>
+      <c r="B28" t="s">
+        <v>18</v>
+      </c>
+      <c r="C28">
+        <v>15999999999</v>
+      </c>
+      <c r="D28" t="s">
+        <v>19</v>
+      </c>
+      <c r="E28" s="15" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="29" spans="4:5">
+      <c r="D29" t="s">
+        <v>21</v>
+      </c>
+      <c r="E29">
         <v>1588888888</v>
       </c>
     </row>
-    <row r="9" spans="5:6">
-      <c r="E9" t="s">
-        <v>12</v>
-      </c>
-      <c r="F9" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="10" spans="5:6">
-      <c r="E10" t="s">
-        <v>14</v>
-      </c>
-      <c r="F10">
+    <row r="30" ht="19.95" customHeight="1" spans="4:5">
+      <c r="D30" t="s">
+        <v>22</v>
+      </c>
+      <c r="E30" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="31" spans="4:5">
+      <c r="D31" t="s">
+        <v>24</v>
+      </c>
+      <c r="E31">
+        <v>14111111111</v>
+      </c>
+    </row>
+    <row r="32" spans="4:5">
+      <c r="D32" t="s">
+        <v>25</v>
+      </c>
+      <c r="E32" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="33" ht="19.95" customHeight="1" spans="4:5">
+      <c r="D33" t="s">
+        <v>27</v>
+      </c>
+      <c r="E33" s="15" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="34" spans="4:5">
+      <c r="D34" t="s">
+        <v>29</v>
+      </c>
+      <c r="E34">
         <v>11111111111</v>
       </c>
     </row>
-    <row r="11" spans="5:6">
-      <c r="E11" t="s">
-        <v>15</v>
-      </c>
-      <c r="F11" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="12" spans="5:6">
-      <c r="E12" t="s">
-        <v>17</v>
-      </c>
-      <c r="F12" s="10" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="13" spans="5:5">
-      <c r="E13" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="14" spans="2:5">
-      <c r="B14" t="s">
-        <v>20</v>
-      </c>
-      <c r="C14" t="s">
-        <v>21</v>
-      </c>
-      <c r="E14" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="15" spans="3:5">
-      <c r="C15" t="s">
-        <v>23</v>
-      </c>
-      <c r="E15" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="16" spans="3:5">
-      <c r="C16" t="s">
-        <v>25</v>
-      </c>
-      <c r="E16" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="17" spans="3:5">
-      <c r="C17" t="s">
-        <v>27</v>
-      </c>
-      <c r="E17" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="18" spans="3:3">
-      <c r="C18" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="19" spans="3:3">
-      <c r="C19" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="22" ht="15.15"/>
-    <row r="23" customFormat="1" ht="19.95" spans="1:7">
-      <c r="A23" t="s">
+    <row r="35" spans="4:4">
+      <c r="D35" t="s">
         <v>30</v>
       </c>
-      <c r="B23" s="2" t="s">
+    </row>
+    <row r="36" ht="19.95" customHeight="1" spans="1:4">
+      <c r="A36" t="s">
+        <v>10</v>
+      </c>
+      <c r="B36" t="s">
         <v>31</v>
       </c>
-      <c r="C23" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="D23" s="3" t="s">
+      <c r="C36" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D36" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="37" spans="2:7">
+      <c r="B37" t="s">
         <v>33</v>
       </c>
-      <c r="E23" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="F23" s="3" t="s">
+      <c r="C37" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D37" t="s">
+        <v>50</v>
+      </c>
+      <c r="E37"/>
+      <c r="G37" s="2"/>
+    </row>
+    <row r="38" spans="2:7">
+      <c r="B38" t="s">
         <v>35</v>
       </c>
-      <c r="G23" s="3" t="s">
+      <c r="C38" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D38" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="24" ht="16.35" spans="2:7">
-      <c r="B24" s="2" t="s">
+      <c r="E38"/>
+      <c r="G38" s="2"/>
+    </row>
+    <row r="39" ht="19.95" customHeight="1" spans="2:7">
+      <c r="B39" t="s">
         <v>37</v>
       </c>
-      <c r="C24" s="4" t="s">
+      <c r="C39" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D39" t="s">
+        <v>30</v>
+      </c>
+      <c r="E39"/>
+      <c r="G39" s="2"/>
+    </row>
+    <row r="40" spans="2:7">
+      <c r="B40" t="s">
         <v>38</v>
       </c>
-      <c r="D24" s="4" t="s">
+      <c r="C40" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="D40"/>
+      <c r="E40"/>
+      <c r="G40" s="2"/>
+    </row>
+    <row r="41" spans="2:7">
+      <c r="B41" t="s">
         <v>39</v>
       </c>
-      <c r="E24" s="5">
-        <v>15999999999</v>
-      </c>
-      <c r="F24" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="G24" s="4" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="25" ht="31.35" spans="2:7">
-      <c r="B25" s="2"/>
-      <c r="C25" s="4"/>
-      <c r="D25" s="4"/>
-      <c r="E25" s="5"/>
-      <c r="F25" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="G25" s="4"/>
-    </row>
-    <row r="26" ht="16.35" spans="2:7">
-      <c r="B26" s="2"/>
-      <c r="C26" s="4"/>
-      <c r="D26" s="4"/>
-      <c r="E26" s="5"/>
-      <c r="F26" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="G26" s="4"/>
-    </row>
-    <row r="27" ht="16.35" spans="2:7">
-      <c r="B27" s="2"/>
-      <c r="C27" s="4"/>
-      <c r="D27" s="4"/>
-      <c r="E27" s="5"/>
-      <c r="F27" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="G27" s="4"/>
-    </row>
-    <row r="28" ht="31.35" spans="2:7">
-      <c r="B28" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="C28" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="D28" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="E28" s="5">
-        <v>150000000000</v>
-      </c>
-      <c r="F28" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="G28" s="4" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="29" ht="16.35" spans="2:7">
-      <c r="B29" s="2"/>
-      <c r="C29" s="4"/>
-      <c r="D29" s="4"/>
-      <c r="E29" s="5"/>
-      <c r="F29" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="G29" s="4"/>
-    </row>
-    <row r="30" ht="16.35" spans="2:7">
-      <c r="B30" s="2"/>
-      <c r="C30" s="4"/>
-      <c r="D30" s="4"/>
-      <c r="E30" s="5"/>
-      <c r="F30" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="G30" s="4"/>
-    </row>
-    <row r="31" ht="31.35" spans="2:7">
-      <c r="B31" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="C31" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="D31" s="4" t="s">
+      <c r="C41"/>
+      <c r="D41"/>
+      <c r="E41"/>
+      <c r="G41" s="2"/>
+    </row>
+    <row r="42" ht="19.95" customHeight="1" spans="1:7">
+      <c r="A42" s="2"/>
+      <c r="B42" s="2"/>
+      <c r="C42" s="2"/>
+      <c r="D42" s="2"/>
+      <c r="E42" s="2"/>
+      <c r="F42" s="2"/>
+      <c r="G42" s="2"/>
+    </row>
+    <row r="43" spans="1:7">
+      <c r="A43" s="2"/>
+      <c r="B43" s="2"/>
+      <c r="C43" s="2"/>
+      <c r="D43" s="2"/>
+      <c r="E43" s="2"/>
+      <c r="F43" s="2"/>
+      <c r="G43" s="2"/>
+    </row>
+    <row r="44" spans="1:7">
+      <c r="A44" s="2"/>
+      <c r="B44" s="2"/>
+      <c r="C44" s="2"/>
+      <c r="D44" s="2"/>
+      <c r="E44" s="2"/>
+      <c r="F44" s="2"/>
+      <c r="G44" s="2"/>
+    </row>
+    <row r="45" ht="19.95" customHeight="1" spans="1:7">
+      <c r="A45" s="2"/>
+      <c r="B45" s="2"/>
+      <c r="C45" s="2"/>
+      <c r="D45" s="2"/>
+      <c r="E45" s="2"/>
+      <c r="F45" s="2"/>
+      <c r="G45" s="2"/>
+    </row>
+    <row r="46" spans="1:7">
+      <c r="A46" s="2"/>
+      <c r="B46" s="2"/>
+      <c r="C46" s="2"/>
+      <c r="D46" s="2"/>
+      <c r="E46" s="2"/>
+      <c r="F46" s="2"/>
+      <c r="G46" s="2"/>
+    </row>
+    <row r="47" ht="15.15" spans="1:7">
+      <c r="A47" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="E31" s="5">
-        <v>1588888888</v>
-      </c>
-      <c r="F31" s="4" t="s">
+      <c r="B47" s="2"/>
+      <c r="C47" s="2"/>
+      <c r="D47" s="2"/>
+      <c r="E47" s="2"/>
+      <c r="F47" s="2"/>
+      <c r="G47" s="2"/>
+    </row>
+    <row r="48" ht="19.95" customHeight="1" spans="1:8">
+      <c r="A48" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="G31" s="4" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="32" ht="16.35" spans="2:7">
-      <c r="B32" s="2"/>
-      <c r="C32" s="4"/>
-      <c r="D32" s="4"/>
-      <c r="E32" s="5"/>
-      <c r="F32" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="G32" s="4"/>
-    </row>
-    <row r="33" ht="16.35" spans="2:7">
-      <c r="B33" s="2"/>
-      <c r="C33" s="4"/>
-      <c r="D33" s="4"/>
-      <c r="E33" s="5"/>
-      <c r="F33" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="G33" s="4"/>
-    </row>
-    <row r="34" ht="31.35" spans="2:7">
-      <c r="B34" s="2" t="s">
+      <c r="B48" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="C34" s="4" t="s">
+      <c r="C48" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="D34" s="4" t="s">
+      <c r="D48" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="E34" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="F34" s="4" t="s">
+      <c r="E48" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="G34" s="4" t="s">
+      <c r="F48" s="5" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="35" ht="16.35" spans="2:7">
-      <c r="B35" s="2"/>
-      <c r="C35" s="4"/>
-      <c r="D35" s="4"/>
-      <c r="E35" s="5"/>
-      <c r="F35" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="G35" s="4"/>
-    </row>
-    <row r="36" ht="16.35" spans="2:7">
-      <c r="B36" s="2"/>
-      <c r="C36" s="4"/>
-      <c r="D36" s="4"/>
-      <c r="E36" s="5"/>
-      <c r="F36" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="G36" s="4"/>
-    </row>
-    <row r="37" ht="31.35" spans="2:7">
-      <c r="B37" s="2" t="s">
+      <c r="G48" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="C37" s="4" t="s">
+      <c r="H48" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="D37" s="4" t="s">
+    </row>
+    <row r="49" ht="31.95" spans="1:8">
+      <c r="A49" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="E37" s="5">
-        <v>11111111111</v>
-      </c>
-      <c r="F37" s="4" t="s">
+      <c r="B49" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="G37" s="4" t="s">
+      <c r="C49" s="7" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="38" ht="16.35" spans="2:7">
-      <c r="B38" s="2"/>
-      <c r="C38" s="4"/>
-      <c r="D38" s="4"/>
-      <c r="E38" s="5"/>
-      <c r="F38" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="G38" s="4"/>
-    </row>
-    <row r="39" ht="16.35" spans="2:7">
-      <c r="B39" s="2"/>
-      <c r="C39" s="4"/>
-      <c r="D39" s="4"/>
-      <c r="E39" s="5"/>
-      <c r="F39" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="G39" s="4"/>
-    </row>
-    <row r="40" ht="31.35" spans="2:7">
-      <c r="B40" s="2" t="s">
+      <c r="D49" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="C40" s="4" t="s">
+      <c r="E49" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="D40" s="4" t="s">
+      <c r="F49" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="E40" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="F40" s="4" t="s">
+      <c r="G49" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="G40" s="4" t="s">
+      <c r="H49" s="7" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="41" ht="16.35" spans="2:7">
-      <c r="B41" s="2"/>
-      <c r="C41" s="4"/>
-      <c r="D41" s="4"/>
-      <c r="E41" s="5"/>
-      <c r="F41" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="G41" s="4"/>
-    </row>
-    <row r="42" ht="16.35" spans="2:7">
-      <c r="B42" s="2"/>
-      <c r="C42" s="4"/>
-      <c r="D42" s="4"/>
-      <c r="E42" s="5"/>
-      <c r="F42" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="G42" s="4"/>
-    </row>
-    <row r="43" ht="31.35" spans="2:7">
-      <c r="B43" s="2" t="s">
+    <row r="50" ht="31.35" spans="1:8">
+      <c r="A50" s="6"/>
+      <c r="B50" s="7"/>
+      <c r="C50" s="7"/>
+      <c r="D50" s="8"/>
+      <c r="E50" s="7"/>
+      <c r="F50" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="C43" s="4" t="s">
+      <c r="G50" s="7"/>
+      <c r="H50" s="7"/>
+    </row>
+    <row r="51" ht="19.95" customHeight="1" spans="1:8">
+      <c r="A51" s="6"/>
+      <c r="B51" s="7"/>
+      <c r="C51" s="7"/>
+      <c r="D51" s="8"/>
+      <c r="E51" s="7"/>
+      <c r="F51" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="D43" s="4" t="s">
+      <c r="G51" s="7"/>
+      <c r="H51" s="7"/>
+    </row>
+    <row r="52" ht="31.35" spans="1:8">
+      <c r="A52" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="E43" s="5">
-        <v>1234567890</v>
-      </c>
-      <c r="F43" s="4" t="s">
+      <c r="B52" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="G43" s="4" t="s">
+      <c r="C52" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="D52" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="E52" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="F52" s="7" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="44" ht="16.35" spans="2:7">
-      <c r="B44" s="2"/>
-      <c r="C44" s="4"/>
-      <c r="D44" s="4"/>
-      <c r="E44" s="5"/>
-      <c r="F44" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="G44" s="4"/>
-    </row>
-    <row r="45" ht="16.35" spans="2:7">
-      <c r="B45" s="2"/>
-      <c r="C45" s="4"/>
-      <c r="D45" s="4"/>
-      <c r="E45" s="5"/>
-      <c r="F45" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="G45" s="4"/>
-    </row>
-    <row r="46" ht="16.35" spans="2:7">
-      <c r="B46" s="2" t="s">
+      <c r="G52" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="C46" s="4" t="s">
+      <c r="H52" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="D46" s="4" t="s">
+    </row>
+    <row r="53" ht="16.35" spans="1:8">
+      <c r="A53" s="6"/>
+      <c r="B53" s="7"/>
+      <c r="C53" s="7"/>
+      <c r="D53" s="8"/>
+      <c r="E53" s="7"/>
+      <c r="F53" s="9" t="s">
         <v>78</v>
       </c>
-      <c r="E46" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="F46" s="4" t="s">
+      <c r="G53" s="7"/>
+      <c r="H53" s="7"/>
+    </row>
+    <row r="54" ht="19.95" customHeight="1" spans="1:8">
+      <c r="A54" s="6"/>
+      <c r="B54" s="7"/>
+      <c r="C54" s="7"/>
+      <c r="D54" s="8"/>
+      <c r="E54" s="7"/>
+      <c r="F54" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="G54" s="7"/>
+      <c r="H54" s="7"/>
+    </row>
+    <row r="55" ht="31.35" spans="1:8">
+      <c r="A55" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="G46" s="4" t="s">
+      <c r="B55" s="7" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="47" ht="16.35" spans="2:7">
-      <c r="B47" s="2"/>
-      <c r="C47" s="4"/>
-      <c r="D47" s="4"/>
-      <c r="E47" s="4"/>
-      <c r="F47" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="G47" s="4"/>
-    </row>
-    <row r="48" ht="16.35" spans="2:7">
-      <c r="B48" s="2"/>
-      <c r="C48" s="4"/>
-      <c r="D48" s="4"/>
-      <c r="E48" s="4"/>
-      <c r="F48" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="G48" s="4"/>
-    </row>
-    <row r="49" ht="16.35" spans="2:7">
-      <c r="B49" s="2" t="s">
+      <c r="C55" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="D55" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="E55" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="F55" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="C49" s="4" t="s">
+      <c r="G55" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="D49" s="4" t="s">
+      <c r="H55" s="7" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="56" ht="16.35" spans="1:8">
+      <c r="A56" s="6"/>
+      <c r="B56" s="7"/>
+      <c r="C56" s="7"/>
+      <c r="D56" s="8"/>
+      <c r="E56" s="7"/>
+      <c r="F56" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="G56" s="7"/>
+      <c r="H56" s="7"/>
+    </row>
+    <row r="57" ht="16.35" spans="1:8">
+      <c r="A57" s="6"/>
+      <c r="B57" s="7"/>
+      <c r="C57" s="7"/>
+      <c r="D57" s="8"/>
+      <c r="E57" s="7"/>
+      <c r="F57" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="G57" s="7"/>
+      <c r="H57" s="7"/>
+    </row>
+    <row r="58" ht="31.35" spans="1:8">
+      <c r="A58" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="E49" s="5" t="s">
+      <c r="B58" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="F49" s="4" t="s">
+      <c r="C58" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="D58" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="E58" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="F58" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="G58" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="H58" s="7" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="59" ht="16.35" spans="1:8">
+      <c r="A59" s="6"/>
+      <c r="B59" s="7"/>
+      <c r="C59" s="7"/>
+      <c r="D59" s="8"/>
+      <c r="E59" s="7"/>
+      <c r="F59" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="G59" s="7"/>
+      <c r="H59" s="7"/>
+    </row>
+    <row r="60" ht="16.35" spans="1:8">
+      <c r="A60" s="6"/>
+      <c r="B60" s="7"/>
+      <c r="C60" s="7"/>
+      <c r="D60" s="8"/>
+      <c r="E60" s="7"/>
+      <c r="F60" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="G60" s="7"/>
+      <c r="H60" s="7"/>
+    </row>
+    <row r="61" ht="31.35" spans="1:8">
+      <c r="A61" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="G49" s="4" t="s">
+      <c r="B61" s="7" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="50" ht="16.35" spans="2:7">
-      <c r="B50" s="2"/>
-      <c r="C50" s="4"/>
-      <c r="D50" s="4"/>
-      <c r="E50" s="5"/>
-      <c r="F50" s="6" t="s">
+      <c r="C61" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="D61" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="E61" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="F61" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="G50" s="4"/>
-    </row>
-    <row r="51" ht="16.35" spans="2:7">
-      <c r="B51" s="2"/>
-      <c r="C51" s="4"/>
-      <c r="D51" s="4"/>
-      <c r="E51" s="5"/>
-      <c r="F51" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="G51" s="4"/>
-    </row>
-    <row r="52" ht="16.35" spans="2:7">
-      <c r="B52" s="2" t="s">
+      <c r="G61" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="C52" s="4" t="s">
+      <c r="H61" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="D52" s="4" t="s">
+    </row>
+    <row r="62" ht="16.35" spans="1:8">
+      <c r="A62" s="6"/>
+      <c r="B62" s="7"/>
+      <c r="C62" s="7"/>
+      <c r="D62" s="8"/>
+      <c r="E62" s="7"/>
+      <c r="F62" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="G62" s="7"/>
+      <c r="H62" s="7"/>
+    </row>
+    <row r="63" ht="16.35" spans="1:8">
+      <c r="A63" s="6"/>
+      <c r="B63" s="7"/>
+      <c r="C63" s="7"/>
+      <c r="D63" s="8"/>
+      <c r="E63" s="7"/>
+      <c r="F63" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="G63" s="7"/>
+      <c r="H63" s="7"/>
+    </row>
+    <row r="64" ht="31.95" spans="1:8">
+      <c r="A64" s="6" t="s">
         <v>90</v>
       </c>
-      <c r="E52" s="5" t="s">
+      <c r="B64" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="F52" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="G52" s="4" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="53" ht="16.35" spans="2:7">
-      <c r="B53" s="2"/>
-      <c r="C53" s="4"/>
-      <c r="D53" s="4"/>
-      <c r="E53" s="5"/>
-      <c r="F53" s="6" t="s">
+      <c r="C64" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="D64" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="E64" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="F64" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="G53" s="4"/>
-    </row>
-    <row r="54" ht="16.35" spans="2:7">
-      <c r="B54" s="2"/>
-      <c r="C54" s="4"/>
-      <c r="D54" s="4"/>
-      <c r="E54" s="5"/>
-      <c r="F54" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="G54" s="4"/>
-    </row>
-    <row r="55" ht="16.35" spans="2:7">
-      <c r="B55" s="2" t="s">
+      <c r="G64" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="C55" s="4" t="s">
+      <c r="H64" s="7" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="65" ht="16.35" spans="1:8">
+      <c r="A65" s="6"/>
+      <c r="B65" s="7"/>
+      <c r="C65" s="7"/>
+      <c r="D65" s="8"/>
+      <c r="E65" s="7"/>
+      <c r="F65" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="G65" s="7"/>
+      <c r="H65" s="7"/>
+    </row>
+    <row r="66" ht="16.35" spans="1:8">
+      <c r="A66" s="6"/>
+      <c r="B66" s="7"/>
+      <c r="C66" s="7"/>
+      <c r="D66" s="8"/>
+      <c r="E66" s="7"/>
+      <c r="F66" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="G66" s="7"/>
+      <c r="H66" s="7"/>
+    </row>
+    <row r="67" ht="31.95" spans="1:8">
+      <c r="A67" s="6" t="s">
         <v>94</v>
       </c>
-      <c r="D55" s="4" t="s">
+      <c r="B67" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="E55" s="5" t="s">
+      <c r="C67" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="D67" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="E67" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="F67" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="F55" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="G55" s="4" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="56" ht="16.35" spans="2:7">
-      <c r="B56" s="2"/>
-      <c r="C56" s="4"/>
-      <c r="D56" s="4"/>
-      <c r="E56" s="5"/>
-      <c r="F56" s="6" t="s">
+      <c r="G67" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="G56" s="4"/>
-    </row>
-    <row r="57" ht="16.35" spans="2:7">
-      <c r="B57" s="2"/>
-      <c r="C57" s="4"/>
-      <c r="D57" s="4"/>
-      <c r="E57" s="5"/>
-      <c r="F57" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="G57" s="4"/>
-    </row>
-    <row r="58" ht="16.35" spans="2:7">
-      <c r="B58" s="2" t="s">
+      <c r="H67" s="7" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="68" ht="16.35" spans="1:8">
+      <c r="A68" s="6"/>
+      <c r="B68" s="7"/>
+      <c r="C68" s="7"/>
+      <c r="D68" s="8"/>
+      <c r="E68" s="7"/>
+      <c r="F68" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="G68" s="7"/>
+      <c r="H68" s="7"/>
+    </row>
+    <row r="69" ht="16.35" spans="1:8">
+      <c r="A69" s="6"/>
+      <c r="B69" s="7"/>
+      <c r="C69" s="7"/>
+      <c r="D69" s="8"/>
+      <c r="E69" s="7"/>
+      <c r="F69" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="G69" s="7"/>
+      <c r="H69" s="7"/>
+    </row>
+    <row r="70" ht="16.35" spans="1:8">
+      <c r="A70" s="6" t="s">
         <v>98</v>
       </c>
-      <c r="C58" s="4" t="s">
+      <c r="B70" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="D58" s="4" t="s">
+      <c r="C70" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="D70" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="E70" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="F70" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="E58" s="5" t="s">
+      <c r="G70" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="F58" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="G58" s="4" t="s">
+      <c r="H70" s="7" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="59" ht="16.35" spans="2:7">
-      <c r="B59" s="2"/>
-      <c r="C59" s="4"/>
-      <c r="D59" s="4"/>
-      <c r="E59" s="5"/>
-      <c r="F59" s="6" t="s">
+    <row r="71" ht="16.35" spans="1:8">
+      <c r="A71" s="6"/>
+      <c r="B71" s="7"/>
+      <c r="C71" s="7"/>
+      <c r="D71" s="8"/>
+      <c r="E71" s="7"/>
+      <c r="F71" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="G71" s="7"/>
+      <c r="H71" s="7"/>
+    </row>
+    <row r="72" ht="16.35" spans="1:8">
+      <c r="A72" s="6"/>
+      <c r="B72" s="7"/>
+      <c r="C72" s="7"/>
+      <c r="D72" s="8"/>
+      <c r="E72" s="7"/>
+      <c r="F72" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="G72" s="7"/>
+      <c r="H72" s="7"/>
+    </row>
+    <row r="73" ht="31.95" spans="1:8">
+      <c r="A73" s="10" t="s">
         <v>103</v>
       </c>
-      <c r="G59" s="4"/>
-    </row>
-    <row r="60" ht="16.35" spans="2:7">
-      <c r="B60" s="2"/>
-      <c r="C60" s="4"/>
-      <c r="D60" s="4"/>
-      <c r="E60" s="5"/>
-      <c r="F60" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="G60" s="4"/>
-    </row>
-    <row r="61" ht="16.35" spans="2:7">
-      <c r="B61" s="2" t="s">
+      <c r="B73" s="11" t="s">
         <v>104</v>
       </c>
-      <c r="C61" s="4" t="s">
+      <c r="C73" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="D73" s="12" t="s">
         <v>105</v>
       </c>
-      <c r="D61" s="4" t="s">
+      <c r="E73" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="F73" s="7" t="s">
         <v>106</v>
       </c>
-      <c r="E61" s="5" t="s">
+      <c r="G73" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="H73" s="11" t="s">
         <v>107</v>
       </c>
-      <c r="F61" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="G61" s="4" t="s">
+    </row>
+    <row r="74" ht="31.95" spans="1:8">
+      <c r="A74" s="10"/>
+      <c r="B74" s="11"/>
+      <c r="C74" s="11"/>
+      <c r="D74" s="12"/>
+      <c r="E74" s="9" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="62" ht="16.35" spans="2:7">
-      <c r="B62" s="2"/>
-      <c r="C62" s="4"/>
-      <c r="D62" s="4"/>
-      <c r="E62" s="5"/>
-      <c r="F62" s="6" t="s">
+      <c r="F74" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="G74" s="11"/>
+      <c r="H74" s="11"/>
+    </row>
+    <row r="75" ht="16.35" spans="1:8">
+      <c r="A75" s="10"/>
+      <c r="B75" s="11"/>
+      <c r="C75" s="11"/>
+      <c r="D75" s="12"/>
+      <c r="E75" s="13"/>
+      <c r="F75" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="G75" s="11"/>
+      <c r="H75" s="11"/>
+    </row>
+    <row r="76" ht="31.95" spans="1:8">
+      <c r="A76" s="6" t="s">
         <v>109</v>
       </c>
-      <c r="G62" s="4"/>
-    </row>
-    <row r="63" ht="16.35" spans="2:7">
-      <c r="B63" s="2"/>
-      <c r="C63" s="4"/>
-      <c r="D63" s="4"/>
-      <c r="E63" s="5"/>
-      <c r="F63" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="G63" s="4"/>
-    </row>
-    <row r="64" ht="16.35" spans="2:7">
-      <c r="B64" s="2" t="s">
+      <c r="B76" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="C64" s="4" t="s">
+      <c r="C76" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="D76" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="E76" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="F76" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="D64" s="4" t="s">
+      <c r="G76" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="E64" s="5" t="s">
+      <c r="H76" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="F64" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="G64" s="4" t="s">
+    </row>
+    <row r="77" ht="31.95" spans="1:8">
+      <c r="A77" s="6"/>
+      <c r="B77" s="7"/>
+      <c r="C77" s="7"/>
+      <c r="D77" s="8"/>
+      <c r="E77" s="9" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="65" ht="16.35" spans="2:7">
-      <c r="B65" s="2"/>
-      <c r="C65" s="4"/>
-      <c r="D65" s="4"/>
-      <c r="E65" s="5"/>
-      <c r="F65" s="6" t="s">
+      <c r="F77" s="9" t="s">
         <v>115</v>
       </c>
-      <c r="G65" s="4"/>
-    </row>
-    <row r="66" ht="16.35" spans="2:7">
-      <c r="B66" s="2"/>
-      <c r="C66" s="4"/>
-      <c r="D66" s="4"/>
-      <c r="E66" s="5"/>
-      <c r="F66" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="G66" s="4"/>
-    </row>
-    <row r="67" ht="16.35" spans="2:7">
-      <c r="B67" s="2" t="s">
+      <c r="G77" s="7"/>
+      <c r="H77" s="7"/>
+    </row>
+    <row r="78" ht="31.95" spans="1:8">
+      <c r="A78" s="6" t="s">
         <v>116</v>
       </c>
-      <c r="C67" s="4" t="s">
+      <c r="B78" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="D67" s="4" t="s">
+      <c r="C78" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="D78" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="E78" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="F78" s="7" t="s">
         <v>118</v>
       </c>
-      <c r="E67" s="5" t="s">
+      <c r="G78" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="F67" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="G67" s="4" t="s">
+      <c r="H78" s="7" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="79" ht="16.35" spans="1:8">
+      <c r="A79" s="6"/>
+      <c r="B79" s="7"/>
+      <c r="C79" s="7"/>
+      <c r="D79" s="8"/>
+      <c r="E79" s="9" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="68" ht="31.35" spans="2:7">
-      <c r="B68" s="2"/>
-      <c r="C68" s="4"/>
-      <c r="D68" s="4"/>
-      <c r="E68" s="5"/>
-      <c r="F68" s="6" t="s">
+      <c r="F79" s="9" t="s">
+        <v>115</v>
+      </c>
+      <c r="G79" s="7"/>
+      <c r="H79" s="7"/>
+    </row>
+    <row r="80" ht="31.95" spans="1:8">
+      <c r="A80" s="6" t="s">
         <v>121</v>
       </c>
-      <c r="G68" s="4"/>
-    </row>
-    <row r="69" ht="16.35" spans="2:7">
-      <c r="B69" s="2"/>
-      <c r="C69" s="4"/>
-      <c r="D69" s="4"/>
-      <c r="E69" s="5"/>
-      <c r="F69" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="G69" s="4"/>
-    </row>
-    <row r="70" ht="16.35" spans="2:7">
-      <c r="B70" s="2" t="s">
+      <c r="B80" s="7" t="s">
         <v>122</v>
       </c>
-      <c r="C70" s="4" t="s">
+      <c r="C80" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="D80" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="E80" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="F80" s="7" t="s">
         <v>123</v>
       </c>
-      <c r="D70" s="4" t="s">
+      <c r="G80" s="7" t="s">
         <v>124</v>
       </c>
-      <c r="E70" s="5" t="s">
+      <c r="H80" s="7" t="s">
         <v>125</v>
       </c>
-      <c r="F70" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="G70" s="4" t="s">
+    </row>
+    <row r="81" ht="16.35" spans="1:8">
+      <c r="A81" s="6"/>
+      <c r="B81" s="7"/>
+      <c r="C81" s="7"/>
+      <c r="D81" s="8"/>
+      <c r="E81" s="9" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="71" ht="16.35" spans="2:7">
-      <c r="B71" s="2"/>
-      <c r="C71" s="4"/>
-      <c r="D71" s="4"/>
-      <c r="E71" s="5"/>
-      <c r="F71" s="6" t="s">
+      <c r="F81" s="9" t="s">
+        <v>115</v>
+      </c>
+      <c r="G81" s="7"/>
+      <c r="H81" s="7"/>
+    </row>
+    <row r="82" ht="31.95" spans="1:8">
+      <c r="A82" s="6" t="s">
         <v>126</v>
       </c>
-      <c r="G71" s="4"/>
-    </row>
-    <row r="72" ht="16.35" spans="2:7">
-      <c r="B72" s="2"/>
-      <c r="C72" s="4"/>
-      <c r="D72" s="4"/>
-      <c r="E72" s="5"/>
-      <c r="F72" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="G72" s="4"/>
-    </row>
-    <row r="73" ht="16.35" spans="2:7">
-      <c r="B73" s="2" t="s">
+      <c r="B82" s="7" t="s">
         <v>127</v>
       </c>
-      <c r="C73" s="4" t="s">
+      <c r="C82" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="D82" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="E82" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="F82" s="7" t="s">
         <v>128</v>
       </c>
-      <c r="D73" s="4" t="s">
+      <c r="G82" s="7" t="s">
         <v>129</v>
       </c>
-      <c r="E73" s="5">
-        <v>12345678</v>
-      </c>
-      <c r="F73" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="G73" s="4" t="s">
+      <c r="H82" s="7" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="83" ht="16.35" spans="1:8">
+      <c r="A83" s="6"/>
+      <c r="B83" s="7"/>
+      <c r="C83" s="7"/>
+      <c r="D83" s="8"/>
+      <c r="E83" s="9" t="s">
+        <v>120</v>
+      </c>
+      <c r="F83" s="9" t="s">
+        <v>115</v>
+      </c>
+      <c r="G83" s="7"/>
+      <c r="H83" s="7"/>
+    </row>
+    <row r="84" ht="31.95" spans="1:8">
+      <c r="A84" s="6" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="74" ht="16.35" spans="2:7">
-      <c r="B74" s="2"/>
-      <c r="C74" s="4"/>
-      <c r="D74" s="4"/>
-      <c r="E74" s="5"/>
-      <c r="F74" s="6" t="s">
+      <c r="B84" s="7" t="s">
         <v>131</v>
       </c>
-      <c r="G74" s="4"/>
-    </row>
-    <row r="75" ht="16.35" spans="2:7">
-      <c r="B75" s="2"/>
-      <c r="C75" s="4"/>
-      <c r="D75" s="4"/>
-      <c r="E75" s="5"/>
-      <c r="F75" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="G75" s="4"/>
-    </row>
-    <row r="76" ht="16.35" spans="2:7">
-      <c r="B76" s="7" t="s">
+      <c r="C84" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="D84" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="E84" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="F84" s="7" t="s">
         <v>132</v>
       </c>
-      <c r="C76" s="8" t="s">
+      <c r="G84" s="7" t="s">
         <v>133</v>
       </c>
-      <c r="D76" s="8" t="s">
+      <c r="H84" s="7" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="85" ht="16.35" spans="1:8">
+      <c r="A85" s="6"/>
+      <c r="B85" s="7"/>
+      <c r="C85" s="7"/>
+      <c r="D85" s="8"/>
+      <c r="E85" s="9" t="s">
+        <v>120</v>
+      </c>
+      <c r="F85" s="9" t="s">
+        <v>115</v>
+      </c>
+      <c r="G85" s="7"/>
+      <c r="H85" s="7"/>
+    </row>
+    <row r="86" ht="31.95" spans="1:8">
+      <c r="A86" s="6" t="s">
         <v>134</v>
       </c>
-      <c r="E76" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="F76" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="G76" s="8" t="s">
+      <c r="B86" s="7" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="77" ht="16.35" spans="2:7">
-      <c r="B77" s="7"/>
-      <c r="C77" s="8"/>
-      <c r="D77" s="8"/>
-      <c r="E77" s="8"/>
-      <c r="F77" s="6" t="s">
+      <c r="C86" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="D86" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="E86" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="F86" s="7" t="s">
         <v>136</v>
       </c>
-      <c r="G77" s="8"/>
-    </row>
-    <row r="78" ht="16.35" spans="2:7">
-      <c r="B78" s="7"/>
-      <c r="C78" s="8"/>
-      <c r="D78" s="8"/>
-      <c r="E78" s="8"/>
-      <c r="F78" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="G78" s="8"/>
+      <c r="G86" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="H86" s="7" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="87" ht="16.35" spans="1:8">
+      <c r="A87" s="6"/>
+      <c r="B87" s="7"/>
+      <c r="C87" s="7"/>
+      <c r="D87" s="8"/>
+      <c r="E87" s="9" t="s">
+        <v>120</v>
+      </c>
+      <c r="F87" s="9" t="s">
+        <v>115</v>
+      </c>
+      <c r="G87" s="7"/>
+      <c r="H87" s="7"/>
+    </row>
+    <row r="88" ht="31.95" spans="1:8">
+      <c r="A88" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="B88" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="C88" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="D88" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="E88" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="F88" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="G88" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="H88" s="7" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="89" ht="16.35" spans="1:8">
+      <c r="A89" s="6"/>
+      <c r="B89" s="7"/>
+      <c r="C89" s="7"/>
+      <c r="D89" s="8"/>
+      <c r="E89" s="9" t="s">
+        <v>120</v>
+      </c>
+      <c r="F89" s="9" t="s">
+        <v>115</v>
+      </c>
+      <c r="G89" s="7"/>
+      <c r="H89" s="7"/>
+    </row>
+    <row r="90" ht="31.95" spans="1:8">
+      <c r="A90" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="B90" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="C90" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="D90" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="E90" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="F90" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="G90" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="H90" s="7" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="91" ht="16.35" spans="1:8">
+      <c r="A91" s="6"/>
+      <c r="B91" s="7"/>
+      <c r="C91" s="7"/>
+      <c r="D91" s="8"/>
+      <c r="E91" s="9" t="s">
+        <v>120</v>
+      </c>
+      <c r="F91" s="9" t="s">
+        <v>115</v>
+      </c>
+      <c r="G91" s="7"/>
+      <c r="H91" s="7"/>
+    </row>
+    <row r="92" ht="31.95" spans="1:8">
+      <c r="A92" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="B92" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="C92" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="D92" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="E92" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="F92" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="G92" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="H92" s="7" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="93" ht="16.35" spans="1:8">
+      <c r="A93" s="6"/>
+      <c r="B93" s="7"/>
+      <c r="C93" s="7"/>
+      <c r="D93" s="8"/>
+      <c r="E93" s="9" t="s">
+        <v>120</v>
+      </c>
+      <c r="F93" s="9" t="s">
+        <v>115</v>
+      </c>
+      <c r="G93" s="7"/>
+      <c r="H93" s="7"/>
+    </row>
+    <row r="94" ht="31.95" spans="1:8">
+      <c r="A94" s="10" t="s">
+        <v>152</v>
+      </c>
+      <c r="B94" s="11" t="s">
+        <v>153</v>
+      </c>
+      <c r="C94" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="D94" s="12" t="s">
+        <v>105</v>
+      </c>
+      <c r="E94" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="F94" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="G94" s="11" t="s">
+        <v>155</v>
+      </c>
+      <c r="H94" s="11" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="95" ht="16.35" spans="1:8">
+      <c r="A95" s="10"/>
+      <c r="B95" s="11"/>
+      <c r="C95" s="11"/>
+      <c r="D95" s="12"/>
+      <c r="E95" s="14" t="s">
+        <v>120</v>
+      </c>
+      <c r="F95" s="14" t="s">
+        <v>115</v>
+      </c>
+      <c r="G95" s="11"/>
+      <c r="H95" s="11"/>
     </row>
   </sheetData>
-  <mergeCells count="90">
-    <mergeCell ref="B24:B27"/>
-    <mergeCell ref="B28:B30"/>
-    <mergeCell ref="B31:B33"/>
-    <mergeCell ref="B34:B36"/>
-    <mergeCell ref="B37:B39"/>
-    <mergeCell ref="B40:B42"/>
-    <mergeCell ref="B43:B45"/>
-    <mergeCell ref="B46:B48"/>
+  <mergeCells count="122">
+    <mergeCell ref="A49:A51"/>
+    <mergeCell ref="A52:A54"/>
+    <mergeCell ref="A55:A57"/>
+    <mergeCell ref="A58:A60"/>
+    <mergeCell ref="A61:A63"/>
+    <mergeCell ref="A64:A66"/>
+    <mergeCell ref="A67:A69"/>
+    <mergeCell ref="A70:A72"/>
+    <mergeCell ref="A73:A75"/>
+    <mergeCell ref="A76:A77"/>
+    <mergeCell ref="A78:A79"/>
+    <mergeCell ref="A80:A81"/>
+    <mergeCell ref="A82:A83"/>
+    <mergeCell ref="A84:A85"/>
+    <mergeCell ref="A86:A87"/>
+    <mergeCell ref="A88:A89"/>
+    <mergeCell ref="A90:A91"/>
+    <mergeCell ref="A92:A93"/>
+    <mergeCell ref="A94:A95"/>
     <mergeCell ref="B49:B51"/>
     <mergeCell ref="B52:B54"/>
     <mergeCell ref="B55:B57"/>
@@ -2815,15 +3543,16 @@
     <mergeCell ref="B67:B69"/>
     <mergeCell ref="B70:B72"/>
     <mergeCell ref="B73:B75"/>
-    <mergeCell ref="B76:B78"/>
-    <mergeCell ref="C24:C27"/>
-    <mergeCell ref="C28:C30"/>
-    <mergeCell ref="C31:C33"/>
-    <mergeCell ref="C34:C36"/>
-    <mergeCell ref="C37:C39"/>
-    <mergeCell ref="C40:C42"/>
-    <mergeCell ref="C43:C45"/>
-    <mergeCell ref="C46:C48"/>
+    <mergeCell ref="B76:B77"/>
+    <mergeCell ref="B78:B79"/>
+    <mergeCell ref="B80:B81"/>
+    <mergeCell ref="B82:B83"/>
+    <mergeCell ref="B84:B85"/>
+    <mergeCell ref="B86:B87"/>
+    <mergeCell ref="B88:B89"/>
+    <mergeCell ref="B90:B91"/>
+    <mergeCell ref="B92:B93"/>
+    <mergeCell ref="B94:B95"/>
     <mergeCell ref="C49:C51"/>
     <mergeCell ref="C52:C54"/>
     <mergeCell ref="C55:C57"/>
@@ -2833,15 +3562,16 @@
     <mergeCell ref="C67:C69"/>
     <mergeCell ref="C70:C72"/>
     <mergeCell ref="C73:C75"/>
-    <mergeCell ref="C76:C78"/>
-    <mergeCell ref="D24:D27"/>
-    <mergeCell ref="D28:D30"/>
-    <mergeCell ref="D31:D33"/>
-    <mergeCell ref="D34:D36"/>
-    <mergeCell ref="D37:D39"/>
-    <mergeCell ref="D40:D42"/>
-    <mergeCell ref="D43:D45"/>
-    <mergeCell ref="D46:D48"/>
+    <mergeCell ref="C76:C77"/>
+    <mergeCell ref="C78:C79"/>
+    <mergeCell ref="C80:C81"/>
+    <mergeCell ref="C82:C83"/>
+    <mergeCell ref="C84:C85"/>
+    <mergeCell ref="C86:C87"/>
+    <mergeCell ref="C88:C89"/>
+    <mergeCell ref="C90:C91"/>
+    <mergeCell ref="C92:C93"/>
+    <mergeCell ref="C94:C95"/>
     <mergeCell ref="D49:D51"/>
     <mergeCell ref="D52:D54"/>
     <mergeCell ref="D55:D57"/>
@@ -2851,15 +3581,16 @@
     <mergeCell ref="D67:D69"/>
     <mergeCell ref="D70:D72"/>
     <mergeCell ref="D73:D75"/>
-    <mergeCell ref="D76:D78"/>
-    <mergeCell ref="E24:E27"/>
-    <mergeCell ref="E28:E30"/>
-    <mergeCell ref="E31:E33"/>
-    <mergeCell ref="E34:E36"/>
-    <mergeCell ref="E37:E39"/>
-    <mergeCell ref="E40:E42"/>
-    <mergeCell ref="E43:E45"/>
-    <mergeCell ref="E46:E48"/>
+    <mergeCell ref="D76:D77"/>
+    <mergeCell ref="D78:D79"/>
+    <mergeCell ref="D80:D81"/>
+    <mergeCell ref="D82:D83"/>
+    <mergeCell ref="D84:D85"/>
+    <mergeCell ref="D86:D87"/>
+    <mergeCell ref="D88:D89"/>
+    <mergeCell ref="D90:D91"/>
+    <mergeCell ref="D92:D93"/>
+    <mergeCell ref="D94:D95"/>
     <mergeCell ref="E49:E51"/>
     <mergeCell ref="E52:E54"/>
     <mergeCell ref="E55:E57"/>
@@ -2868,16 +3599,6 @@
     <mergeCell ref="E64:E66"/>
     <mergeCell ref="E67:E69"/>
     <mergeCell ref="E70:E72"/>
-    <mergeCell ref="E73:E75"/>
-    <mergeCell ref="E76:E78"/>
-    <mergeCell ref="G24:G27"/>
-    <mergeCell ref="G28:G30"/>
-    <mergeCell ref="G31:G33"/>
-    <mergeCell ref="G34:G36"/>
-    <mergeCell ref="G37:G39"/>
-    <mergeCell ref="G40:G42"/>
-    <mergeCell ref="G43:G45"/>
-    <mergeCell ref="G46:G48"/>
     <mergeCell ref="G49:G51"/>
     <mergeCell ref="G52:G54"/>
     <mergeCell ref="G55:G57"/>
@@ -2887,7 +3608,35 @@
     <mergeCell ref="G67:G69"/>
     <mergeCell ref="G70:G72"/>
     <mergeCell ref="G73:G75"/>
-    <mergeCell ref="G76:G78"/>
+    <mergeCell ref="G76:G77"/>
+    <mergeCell ref="G78:G79"/>
+    <mergeCell ref="G80:G81"/>
+    <mergeCell ref="G82:G83"/>
+    <mergeCell ref="G84:G85"/>
+    <mergeCell ref="G86:G87"/>
+    <mergeCell ref="G88:G89"/>
+    <mergeCell ref="G90:G91"/>
+    <mergeCell ref="G92:G93"/>
+    <mergeCell ref="G94:G95"/>
+    <mergeCell ref="H49:H51"/>
+    <mergeCell ref="H52:H54"/>
+    <mergeCell ref="H55:H57"/>
+    <mergeCell ref="H58:H60"/>
+    <mergeCell ref="H61:H63"/>
+    <mergeCell ref="H64:H66"/>
+    <mergeCell ref="H67:H69"/>
+    <mergeCell ref="H70:H72"/>
+    <mergeCell ref="H73:H75"/>
+    <mergeCell ref="H76:H77"/>
+    <mergeCell ref="H78:H79"/>
+    <mergeCell ref="H80:H81"/>
+    <mergeCell ref="H82:H83"/>
+    <mergeCell ref="H84:H85"/>
+    <mergeCell ref="H86:H87"/>
+    <mergeCell ref="H88:H89"/>
+    <mergeCell ref="H90:H91"/>
+    <mergeCell ref="H92:H93"/>
+    <mergeCell ref="H94:H95"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
